--- a/sputnik/personal/ee/97ee.xlsx
+++ b/sputnik/personal/ee/97ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -57,11 +57,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,7 +217,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,9 +249,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -283,6 +284,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -458,17 +460,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" style="1" customWidth="1"/>
@@ -483,7 +485,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="51.75" customHeight="1">
+    <row r="1" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -509,7 +511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>43703</v>
       </c>
@@ -525,7 +527,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -539,7 +541,7 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>43734</v>
       </c>
@@ -569,7 +571,7 @@
         <v>521.9</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="2" t="s">
         <v>1</v>
@@ -591,7 +593,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>43857</v>
       </c>
@@ -621,7 +623,7 @@
         <v>991.03000000000009</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="2" t="s">
         <v>1</v>
@@ -643,25 +645,77 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="F8" s="9" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>43977</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3313</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" ref="D8:D9" si="2">SUM(C8,-C6)</f>
+        <v>197</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" ref="F8:F9" si="3">PRODUCT(D8,E8)</f>
+        <v>884.53000000000009</v>
+      </c>
+      <c r="G8" s="10">
+        <f>SUM(F8,F9)</f>
+        <v>1061.92</v>
+      </c>
+      <c r="H8" s="10">
+        <f>SUM(G8,G9)</f>
+        <v>1061.92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>965</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="3"/>
+        <v>177.39000000000001</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G10" s="10">
         <f>SUM(G4:G7)</f>
         <v>1512.93</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H10" s="10">
         <f>SUM(H4:H7)</f>
         <v>1512.93</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="F9" s="9" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -671,12 +725,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -685,12 +739,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/97ee.xlsx
+++ b/sputnik/personal/ee/97ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Т1</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>остаток</t>
+  </si>
+  <si>
+    <t>Т</t>
+  </si>
+  <si>
+    <t>оплачены пени</t>
+  </si>
+  <si>
+    <t>нач пени 118 дн</t>
   </si>
 </sst>
 </file>
@@ -61,7 +70,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +93,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -93,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -129,11 +145,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -157,6 +186,20 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -464,10 +507,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -698,24 +741,129 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="9" t="s">
+      <c r="A10" s="13">
+        <v>43977</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16">
+        <v>82.83</v>
+      </c>
+      <c r="G10" s="17">
+        <v>82.83</v>
+      </c>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>43998</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3723</v>
+      </c>
+      <c r="D11" s="2">
+        <f>SUM(C11,-C8)</f>
+        <v>410</v>
+      </c>
+      <c r="E11" s="4">
+        <v>4.49</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" ref="F11:F12" si="4">PRODUCT(D11,E11)</f>
+        <v>1840.9</v>
+      </c>
+      <c r="G11" s="10">
+        <f>SUM(F11,F12)</f>
+        <v>2132.5</v>
+      </c>
+      <c r="H11" s="10">
+        <f>SUM(G11,G12)</f>
+        <v>2132.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1085</v>
+      </c>
+      <c r="D12" s="2">
+        <f>SUM(C12,-C9)</f>
+        <v>120</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="4"/>
+        <v>291.60000000000002</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>43998</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0</v>
+      </c>
+      <c r="G13" s="17">
+        <v>0</v>
+      </c>
+      <c r="H13" s="18">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="10">
-        <f>SUM(G4:G7)</f>
-        <v>1512.93</v>
-      </c>
-      <c r="H10" s="10">
-        <f>SUM(H4:H7)</f>
-        <v>1512.93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="9" t="s">
+      <c r="G14" s="12">
+        <f>SUM(G4:G13)</f>
+        <v>4790.18</v>
+      </c>
+      <c r="H14" s="12">
+        <f>SUM(H4:H13)</f>
+        <v>5007.3500000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10">
+        <f>SUM(H14,-G14)</f>
+        <v>217.17000000000007</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/97ee.xlsx
+++ b/sputnik/personal/ee/97ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>Т1</t>
   </si>
@@ -507,10 +507,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -843,26 +843,104 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="11" t="s">
+      <c r="A14" s="6">
+        <v>44039</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4120</v>
+      </c>
+      <c r="D14" s="2">
+        <f>SUM(C14,-C11)</f>
+        <v>397</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" ref="F14:F15" si="5">PRODUCT(D14,E14)</f>
+        <v>1869.87</v>
+      </c>
+      <c r="G14" s="10">
+        <f>SUM(F14,F15)</f>
+        <v>2002.4699999999998</v>
+      </c>
+      <c r="H14" s="10">
+        <f>SUM(G14,G15)</f>
+        <v>2002.4699999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1137</v>
+      </c>
+      <c r="D15" s="2">
+        <f>SUM(C15,-C12)</f>
+        <v>52</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="5"/>
+        <v>132.6</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>44039</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0</v>
+      </c>
+      <c r="G16" s="17">
+        <v>0</v>
+      </c>
+      <c r="H16" s="18">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="12">
-        <f>SUM(G4:G13)</f>
-        <v>4790.18</v>
-      </c>
-      <c r="H14" s="12">
-        <f>SUM(H4:H13)</f>
-        <v>5007.3500000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="9" t="s">
+      <c r="G17" s="12">
+        <f>SUM(G4:G16)</f>
+        <v>6792.65</v>
+      </c>
+      <c r="H17" s="12">
+        <f>SUM(H4:H16)</f>
+        <v>7309.82</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10">
-        <f>SUM(H14,-G14)</f>
-        <v>217.17000000000007</v>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10">
+        <f>SUM(H17,-G17)</f>
+        <v>517.17000000000007</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/97ee.xlsx
+++ b/sputnik/personal/ee/97ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t>Т1</t>
   </si>
@@ -507,10 +507,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -920,27 +920,105 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="11" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>44068</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>4420</v>
+      </c>
+      <c r="D17" s="2">
+        <f>SUM(C17,-C14)</f>
+        <v>300</v>
+      </c>
+      <c r="E17" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" ref="F17:F18" si="6">PRODUCT(D17,E17)</f>
+        <v>1413</v>
+      </c>
+      <c r="G17" s="10">
+        <f>SUM(F17,F18)</f>
+        <v>1535.4</v>
+      </c>
+      <c r="H17" s="10">
+        <f>SUM(G17,G18)</f>
+        <v>1535.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1185</v>
+      </c>
+      <c r="D18" s="2">
+        <f>SUM(C18,-C15)</f>
+        <v>48</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="6"/>
+        <v>122.39999999999999</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>44068</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="17">
+        <v>0</v>
+      </c>
+      <c r="H19" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="12">
-        <f>SUM(G4:G16)</f>
-        <v>6792.65</v>
-      </c>
-      <c r="H17" s="12">
-        <f>SUM(H4:H16)</f>
-        <v>7309.82</v>
-      </c>
-    </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="9" t="s">
+      <c r="G20" s="12">
+        <f>SUM(G4:G19)</f>
+        <v>8328.0499999999993</v>
+      </c>
+      <c r="H20" s="12">
+        <f>SUM(H4:H19)</f>
+        <v>8945.2199999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10">
-        <f>SUM(H17,-G17)</f>
-        <v>517.17000000000007</v>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10">
+        <f>SUM(H20,-G20)</f>
+        <v>617.17000000000007</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/97ee.xlsx
+++ b/sputnik/personal/ee/97ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
   <si>
     <t>Т1</t>
   </si>
@@ -507,10 +507,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -999,25 +999,77 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="11" t="s">
+      <c r="A20" s="6">
+        <v>44102</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4590</v>
+      </c>
+      <c r="D20" s="2">
+        <f>SUM(C20,-C17)</f>
+        <v>170</v>
+      </c>
+      <c r="E20" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" ref="F20:F21" si="7">PRODUCT(D20,E20)</f>
+        <v>800.7</v>
+      </c>
+      <c r="G20" s="10">
+        <f>SUM(F20,F21)</f>
+        <v>877.2</v>
+      </c>
+      <c r="H20" s="10">
+        <f>SUM(G20,G21)</f>
+        <v>877.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1215</v>
+      </c>
+      <c r="D21" s="2">
+        <f>SUM(C21,-C18)</f>
+        <v>30</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="7"/>
+        <v>76.5</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="12">
-        <f>SUM(G4:G19)</f>
-        <v>8328.0499999999993</v>
-      </c>
-      <c r="H20" s="12">
-        <f>SUM(H4:H19)</f>
-        <v>8945.2199999999993</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="9" t="s">
+      <c r="G22" s="12">
+        <f>SUM(G4:G21)</f>
+        <v>9205.25</v>
+      </c>
+      <c r="H22" s="12">
+        <f>SUM(H4:H21)</f>
+        <v>9822.42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="10">
-        <f>SUM(H20,-G20)</f>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10">
+        <f>SUM(H22,-G22)</f>
         <v>617.17000000000007</v>
       </c>
     </row>

--- a/sputnik/personal/ee/97ee.xlsx
+++ b/sputnik/personal/ee/97ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>Т1</t>
   </si>
@@ -507,10 +507,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1051,26 +1051,77 @@
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="11" t="s">
+      <c r="A22" s="6">
+        <v>44116</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4790</v>
+      </c>
+      <c r="D22" s="2">
+        <f>SUM(C22,-C20)</f>
+        <v>200</v>
+      </c>
+      <c r="E22" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" ref="F22:F23" si="8">PRODUCT(D22,E22)</f>
+        <v>942</v>
+      </c>
+      <c r="G22" s="10">
+        <f>SUM(F22,F23)</f>
+        <v>1018.5</v>
+      </c>
+      <c r="H22" s="10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1245</v>
+      </c>
+      <c r="D23" s="2">
+        <f>SUM(C23,-C21)</f>
+        <v>30</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="8"/>
+        <v>76.5</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="12">
-        <f>SUM(G4:G21)</f>
-        <v>9205.25</v>
-      </c>
-      <c r="H22" s="12">
-        <f>SUM(H4:H21)</f>
-        <v>9822.42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="9" t="s">
+      <c r="G24" s="12">
+        <f>SUM(G4:G23)</f>
+        <v>10223.75</v>
+      </c>
+      <c r="H24" s="12">
+        <f>SUM(H4:H23)</f>
+        <v>10822.42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="10">
-        <f>SUM(H22,-G22)</f>
-        <v>617.17000000000007</v>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10">
+        <f>SUM(H24,-G24)</f>
+        <v>598.67000000000007</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/97ee.xlsx
+++ b/sputnik/personal/ee/97ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -52,15 +52,6 @@
   </si>
   <si>
     <t>остаток</t>
-  </si>
-  <si>
-    <t>Т</t>
-  </si>
-  <si>
-    <t>оплачены пени</t>
-  </si>
-  <si>
-    <t>нач пени 118 дн</t>
   </si>
 </sst>
 </file>
@@ -70,7 +61,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,13 +80,6 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -162,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -188,18 +172,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -507,10 +479,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -556,19 +528,21 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>43703</v>
+        <v>44068</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>2831</v>
+        <v>4420</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="4"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10">
+        <v>617.16999999999996</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
@@ -576,7 +550,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>796</v>
+        <v>1185</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
@@ -586,32 +560,32 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>43734</v>
+        <v>44102</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>2931</v>
+        <v>4590</v>
       </c>
       <c r="D4" s="2">
         <f>SUM(C4,-C2)</f>
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="E4" s="4">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F7" si="0">PRODUCT(D4,E4)</f>
-        <v>449</v>
+        <f t="shared" ref="F4:F5" si="0">PRODUCT(D4,E4)</f>
+        <v>800.7</v>
       </c>
       <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
-        <v>521.9</v>
+        <v>877.2</v>
       </c>
       <c r="H4" s="10">
         <f>SUM(G4,G5)</f>
-        <v>521.9</v>
+        <v>877.2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -620,50 +594,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>826</v>
+        <v>1215</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:D7" si="1">SUM(C5,-C3)</f>
+        <f>SUM(C5,-C3)</f>
         <v>30</v>
       </c>
       <c r="E5" s="4">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="0"/>
-        <v>72.900000000000006</v>
+        <v>76.5</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>43857</v>
+        <v>44116</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>3116</v>
+        <v>4790</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="1"/>
-        <v>185</v>
+        <f>SUM(C6,-C4)</f>
+        <v>200</v>
       </c>
       <c r="E6" s="4">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="0"/>
-        <v>830.65000000000009</v>
+        <f t="shared" ref="F6:F7" si="1">PRODUCT(D6,E6)</f>
+        <v>942</v>
       </c>
       <c r="G6" s="10">
         <f>SUM(F6,F7)</f>
-        <v>991.03000000000009</v>
+        <v>1018.5</v>
       </c>
       <c r="H6" s="10">
-        <f>SUM(G6,G7)</f>
-        <v>991.03000000000009</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -672,462 +645,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>892</v>
+        <v>1245</v>
       </c>
       <c r="D7" s="2">
+        <f>SUM(C7,-C5)</f>
+        <v>30</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F7" s="8">
         <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F7" s="8">
-        <f t="shared" si="0"/>
-        <v>160.38000000000002</v>
+        <v>76.5</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>43977</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>3313</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" ref="D8:D9" si="2">SUM(C8,-C6)</f>
-        <v>197</v>
-      </c>
-      <c r="E8" s="4">
-        <v>4.49</v>
-      </c>
-      <c r="F8" s="8">
-        <f t="shared" ref="F8:F9" si="3">PRODUCT(D8,E8)</f>
-        <v>884.53000000000009</v>
-      </c>
-      <c r="G8" s="10">
-        <f>SUM(F8,F9)</f>
-        <v>1061.92</v>
-      </c>
-      <c r="H8" s="10">
-        <f>SUM(G8,G9)</f>
-        <v>1061.92</v>
+      <c r="F8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="12">
+        <f>SUM(G2:G7)</f>
+        <v>1895.7</v>
+      </c>
+      <c r="H8" s="12">
+        <f>SUM(H2:H7)</f>
+        <v>2494.37</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <v>965</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="2"/>
-        <v>73</v>
-      </c>
-      <c r="E9" s="4">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F9" s="8">
-        <f t="shared" si="3"/>
-        <v>177.39000000000001</v>
+      <c r="F9" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>43977</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="14">
-        <v>0</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="15">
-        <v>0</v>
-      </c>
-      <c r="F10" s="16">
-        <v>82.83</v>
-      </c>
-      <c r="G10" s="17">
-        <v>82.83</v>
-      </c>
-      <c r="H10" s="17"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>43998</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3723</v>
-      </c>
-      <c r="D11" s="2">
-        <f>SUM(C11,-C8)</f>
-        <v>410</v>
-      </c>
-      <c r="E11" s="4">
-        <v>4.49</v>
-      </c>
-      <c r="F11" s="8">
-        <f t="shared" ref="F11:F12" si="4">PRODUCT(D11,E11)</f>
-        <v>1840.9</v>
-      </c>
-      <c r="G11" s="10">
-        <f>SUM(F11,F12)</f>
-        <v>2132.5</v>
-      </c>
-      <c r="H11" s="10">
-        <f>SUM(G11,G12)</f>
-        <v>2132.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1085</v>
-      </c>
-      <c r="D12" s="2">
-        <f>SUM(C12,-C9)</f>
-        <v>120</v>
-      </c>
-      <c r="E12" s="4">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F12" s="8">
-        <f t="shared" si="4"/>
-        <v>291.60000000000002</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
-        <v>43998</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="14">
-        <v>0</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="15">
-        <v>0</v>
-      </c>
-      <c r="F13" s="15">
-        <v>0</v>
-      </c>
-      <c r="G13" s="17">
-        <v>0</v>
-      </c>
-      <c r="H13" s="18">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>44039</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>4120</v>
-      </c>
-      <c r="D14" s="2">
-        <f>SUM(C14,-C11)</f>
-        <v>397</v>
-      </c>
-      <c r="E14" s="4">
-        <v>4.71</v>
-      </c>
-      <c r="F14" s="8">
-        <f t="shared" ref="F14:F15" si="5">PRODUCT(D14,E14)</f>
-        <v>1869.87</v>
-      </c>
-      <c r="G14" s="10">
-        <f>SUM(F14,F15)</f>
-        <v>2002.4699999999998</v>
-      </c>
-      <c r="H14" s="10">
-        <f>SUM(G14,G15)</f>
-        <v>2002.4699999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1137</v>
-      </c>
-      <c r="D15" s="2">
-        <f>SUM(C15,-C12)</f>
-        <v>52</v>
-      </c>
-      <c r="E15" s="4">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F15" s="8">
-        <f t="shared" si="5"/>
-        <v>132.6</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <v>44039</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="14">
-        <v>0</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="15">
-        <v>0</v>
-      </c>
-      <c r="F16" s="15">
-        <v>0</v>
-      </c>
-      <c r="G16" s="17">
-        <v>0</v>
-      </c>
-      <c r="H16" s="18">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>44068</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2">
-        <v>4420</v>
-      </c>
-      <c r="D17" s="2">
-        <f>SUM(C17,-C14)</f>
-        <v>300</v>
-      </c>
-      <c r="E17" s="4">
-        <v>4.71</v>
-      </c>
-      <c r="F17" s="8">
-        <f t="shared" ref="F17:F18" si="6">PRODUCT(D17,E17)</f>
-        <v>1413</v>
-      </c>
-      <c r="G17" s="10">
-        <f>SUM(F17,F18)</f>
-        <v>1535.4</v>
-      </c>
-      <c r="H17" s="10">
-        <f>SUM(G17,G18)</f>
-        <v>1535.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1185</v>
-      </c>
-      <c r="D18" s="2">
-        <f>SUM(C18,-C15)</f>
-        <v>48</v>
-      </c>
-      <c r="E18" s="4">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F18" s="8">
-        <f t="shared" si="6"/>
-        <v>122.39999999999999</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
-        <v>44068</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="14">
-        <v>0</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="15">
-        <v>0</v>
-      </c>
-      <c r="F19" s="15">
-        <v>0</v>
-      </c>
-      <c r="G19" s="17">
-        <v>0</v>
-      </c>
-      <c r="H19" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>44102</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2">
-        <v>4590</v>
-      </c>
-      <c r="D20" s="2">
-        <f>SUM(C20,-C17)</f>
-        <v>170</v>
-      </c>
-      <c r="E20" s="4">
-        <v>4.71</v>
-      </c>
-      <c r="F20" s="8">
-        <f t="shared" ref="F20:F21" si="7">PRODUCT(D20,E20)</f>
-        <v>800.7</v>
-      </c>
-      <c r="G20" s="10">
-        <f>SUM(F20,F21)</f>
-        <v>877.2</v>
-      </c>
-      <c r="H20" s="10">
-        <f>SUM(G20,G21)</f>
-        <v>877.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1215</v>
-      </c>
-      <c r="D21" s="2">
-        <f>SUM(C21,-C18)</f>
-        <v>30</v>
-      </c>
-      <c r="E21" s="4">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F21" s="8">
-        <f t="shared" si="7"/>
-        <v>76.5</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>44116</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2">
-        <v>4790</v>
-      </c>
-      <c r="D22" s="2">
-        <f>SUM(C22,-C20)</f>
-        <v>200</v>
-      </c>
-      <c r="E22" s="4">
-        <v>4.71</v>
-      </c>
-      <c r="F22" s="8">
-        <f t="shared" ref="F22:F23" si="8">PRODUCT(D22,E22)</f>
-        <v>942</v>
-      </c>
-      <c r="G22" s="10">
-        <f>SUM(F22,F23)</f>
-        <v>1018.5</v>
-      </c>
-      <c r="H22" s="10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1245</v>
-      </c>
-      <c r="D23" s="2">
-        <f>SUM(C23,-C21)</f>
-        <v>30</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F23" s="8">
-        <f t="shared" si="8"/>
-        <v>76.5</v>
-      </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="12">
-        <f>SUM(G4:G23)</f>
-        <v>10223.75</v>
-      </c>
-      <c r="H24" s="12">
-        <f>SUM(H4:H23)</f>
-        <v>10822.42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="10">
-        <f>SUM(H24,-G24)</f>
-        <v>598.67000000000007</v>
+      <c r="H9" s="10">
+        <f>SUM(H8,-G8)</f>
+        <v>598.66999999999985</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/ee/97ee.xlsx
+++ b/sputnik/personal/ee/97ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -479,10 +479,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -540,9 +540,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="8"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="10">
-        <v>617.16999999999996</v>
-      </c>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
@@ -662,26 +660,77 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F8" s="11" t="s">
+      <c r="A8" s="6">
+        <v>44208</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5258</v>
+      </c>
+      <c r="D8" s="2">
+        <f>SUM(C8,-C6)</f>
+        <v>468</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" ref="F8:F9" si="2">PRODUCT(D8,E8)</f>
+        <v>2204.2800000000002</v>
+      </c>
+      <c r="G8" s="10">
+        <f>SUM(F8,F9)</f>
+        <v>2561.2800000000002</v>
+      </c>
+      <c r="H8" s="10">
+        <v>2558.73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1385</v>
+      </c>
+      <c r="D9" s="2">
+        <f>SUM(C9,-C7)</f>
+        <v>140</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="2"/>
+        <v>357</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="12">
-        <f>SUM(G2:G7)</f>
-        <v>1895.7</v>
-      </c>
-      <c r="H8" s="12">
-        <f>SUM(H2:H7)</f>
-        <v>2494.37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F9" s="9" t="s">
+      <c r="G10" s="12">
+        <f>SUM(G2:G9)</f>
+        <v>4456.9800000000005</v>
+      </c>
+      <c r="H10" s="12">
+        <f>SUM(H2:H9)</f>
+        <v>4435.93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10">
-        <f>SUM(H8,-G8)</f>
-        <v>598.66999999999985</v>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10">
+        <f>SUM(H10,-G10)</f>
+        <v>-21.050000000000182</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/97ee.xlsx
+++ b/sputnik/personal/ee/97ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -479,10 +479,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -567,14 +567,14 @@
         <v>4590</v>
       </c>
       <c r="D4" s="2">
-        <f>SUM(C4,-C2)</f>
+        <f t="shared" ref="D4:D11" si="0">SUM(C4,-C2)</f>
         <v>170</v>
       </c>
       <c r="E4" s="4">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F5" si="0">PRODUCT(D4,E4)</f>
+        <f t="shared" ref="F4:F5" si="1">PRODUCT(D4,E4)</f>
         <v>800.7</v>
       </c>
       <c r="G4" s="10">
@@ -595,14 +595,14 @@
         <v>1215</v>
       </c>
       <c r="D5" s="2">
-        <f>SUM(C5,-C3)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E5" s="4">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>76.5</v>
       </c>
       <c r="G5" s="9"/>
@@ -619,14 +619,14 @@
         <v>4790</v>
       </c>
       <c r="D6" s="2">
-        <f>SUM(C6,-C4)</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="E6" s="4">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" ref="F6:F7" si="1">PRODUCT(D6,E6)</f>
+        <f t="shared" ref="F6:F7" si="2">PRODUCT(D6,E6)</f>
         <v>942</v>
       </c>
       <c r="G6" s="10">
@@ -646,14 +646,14 @@
         <v>1245</v>
       </c>
       <c r="D7" s="2">
-        <f>SUM(C7,-C5)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E7" s="4">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>76.5</v>
       </c>
       <c r="G7" s="9"/>
@@ -670,14 +670,14 @@
         <v>5258</v>
       </c>
       <c r="D8" s="2">
-        <f>SUM(C8,-C6)</f>
+        <f t="shared" si="0"/>
         <v>468</v>
       </c>
       <c r="E8" s="4">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" ref="F8:F9" si="2">PRODUCT(D8,E8)</f>
+        <f t="shared" ref="F8:F9" si="3">PRODUCT(D8,E8)</f>
         <v>2204.2800000000002</v>
       </c>
       <c r="G8" s="10">
@@ -697,39 +697,141 @@
         <v>1385</v>
       </c>
       <c r="D9" s="2">
-        <f>SUM(C9,-C7)</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="E9" s="4">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>357</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="11" t="s">
+      <c r="A10" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5460</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>202</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" ref="F10:F11" si="4">PRODUCT(D10,E10)</f>
+        <v>951.42</v>
+      </c>
+      <c r="G10" s="10">
+        <f>SUM(F10,F11)</f>
+        <v>1305.8699999999999</v>
+      </c>
+      <c r="H10" s="10">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1524</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="4"/>
+        <v>354.45</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>44363</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>5670</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12:D13" si="5">SUM(C12,-C10)</f>
+        <v>210</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" ref="F12:F13" si="6">PRODUCT(D12,E12)</f>
+        <v>989.1</v>
+      </c>
+      <c r="G12" s="10">
+        <f>SUM(F12,F13)</f>
+        <v>989.1</v>
+      </c>
+      <c r="H12" s="10">
+        <v>794.97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1524</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="12">
-        <f>SUM(G2:G9)</f>
-        <v>4456.9800000000005</v>
-      </c>
-      <c r="H10" s="12">
-        <f>SUM(H2:H9)</f>
-        <v>4435.93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="9" t="s">
+      <c r="G14" s="12">
+        <f>SUM(G2:G13)</f>
+        <v>6751.9500000000007</v>
+      </c>
+      <c r="H14" s="12">
+        <f>SUM(H2:H13)</f>
+        <v>6730.9000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10">
-        <f>SUM(H10,-G10)</f>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10">
+        <f>SUM(H14,-G14)</f>
         <v>-21.050000000000182</v>
       </c>
     </row>

--- a/sputnik/personal/ee/97ee.xlsx
+++ b/sputnik/personal/ee/97ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -479,10 +479,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -813,26 +813,77 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="11" t="s">
+      <c r="A14" s="6">
+        <v>44403</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>5863</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14:D15" si="7">SUM(C14,-C12)</f>
+        <v>193</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4.96</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" ref="F14:F15" si="8">PRODUCT(D14,E14)</f>
+        <v>957.28</v>
+      </c>
+      <c r="G14" s="10">
+        <f>SUM(F14,F15)</f>
+        <v>1072.52</v>
+      </c>
+      <c r="H14" s="10">
+        <v>1072.52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1567</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="7"/>
+        <v>43</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2.68</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="8"/>
+        <v>115.24000000000001</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="12">
-        <f>SUM(G2:G13)</f>
-        <v>6751.9500000000007</v>
-      </c>
-      <c r="H14" s="12">
-        <f>SUM(H2:H13)</f>
-        <v>6730.9000000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="9" t="s">
+      <c r="G16" s="12">
+        <f>SUM(G2:G15)</f>
+        <v>7824.4700000000012</v>
+      </c>
+      <c r="H16" s="12">
+        <f>SUM(H2:H15)</f>
+        <v>7803.42</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10">
-        <f>SUM(H14,-G14)</f>
-        <v>-21.050000000000182</v>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10">
+        <f>SUM(H16,-G16)</f>
+        <v>-21.050000000001091</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/97ee.xlsx
+++ b/sputnik/personal/ee/97ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -479,10 +479,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -864,25 +864,76 @@
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="11" t="s">
+      <c r="A16" s="6">
+        <v>44435</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>6153</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16:D17" si="9">SUM(C16,-C14)</f>
+        <v>290</v>
+      </c>
+      <c r="E16" s="4">
+        <v>4.96</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" ref="F16:F17" si="10">PRODUCT(D16,E16)</f>
+        <v>1438.4</v>
+      </c>
+      <c r="G16" s="10">
+        <f>SUM(F16,F17)</f>
+        <v>1743.92</v>
+      </c>
+      <c r="H16" s="10">
+        <v>1743.92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1681</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="9"/>
+        <v>114</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2.68</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="10"/>
+        <v>305.52000000000004</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="12">
-        <f>SUM(G2:G15)</f>
-        <v>7824.4700000000012</v>
-      </c>
-      <c r="H16" s="12">
-        <f>SUM(H2:H15)</f>
-        <v>7803.42</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="9" t="s">
+      <c r="G18" s="12">
+        <f>SUM(G2:G17)</f>
+        <v>9568.3900000000012</v>
+      </c>
+      <c r="H18" s="12">
+        <f>SUM(H2:H17)</f>
+        <v>9547.34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10">
-        <f>SUM(H16,-G16)</f>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10">
+        <f>SUM(H18,-G18)</f>
         <v>-21.050000000001091</v>
       </c>
     </row>

--- a/sputnik/personal/ee/97ee.xlsx
+++ b/sputnik/personal/ee/97ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -479,10 +479,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -915,26 +915,77 @@
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="11" t="s">
+      <c r="A18" s="6">
+        <v>44487</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>6953</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" ref="D18:D19" si="11">SUM(C18,-C16)</f>
+        <v>800</v>
+      </c>
+      <c r="E18" s="4">
+        <v>4.96</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" ref="F18:F19" si="12">PRODUCT(D18,E18)</f>
+        <v>3968</v>
+      </c>
+      <c r="G18" s="10">
+        <f>SUM(F18,F19)</f>
+        <v>4504</v>
+      </c>
+      <c r="H18" s="10">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1881</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="11"/>
+        <v>200</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2.68</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="12"/>
+        <v>536</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="12">
-        <f>SUM(G2:G17)</f>
-        <v>9568.3900000000012</v>
-      </c>
-      <c r="H18" s="12">
-        <f>SUM(H2:H17)</f>
-        <v>9547.34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="9" t="s">
+      <c r="G20" s="12">
+        <f>SUM(G2:G19)</f>
+        <v>14072.390000000001</v>
+      </c>
+      <c r="H20" s="12">
+        <f>SUM(H2:H19)</f>
+        <v>14247.34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="10">
-        <f>SUM(H18,-G18)</f>
-        <v>-21.050000000001091</v>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10">
+        <f>SUM(H20,-G20)</f>
+        <v>174.94999999999891</v>
       </c>
     </row>
   </sheetData>
